--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liugangzuoye\code\netchathomework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC0CC41-D774-4D4F-A40D-14B494E71C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="24320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
   <si>
     <t>头部</t>
   </si>
@@ -108,6 +102,9 @@
     <t>响应登录请求</t>
   </si>
   <si>
+    <t>结果代码 00:账号不存在, 01:密码不正确, 02:用户已登录, 03登录成功</t>
+  </si>
+  <si>
     <t>04|03</t>
   </si>
   <si>
@@ -198,7 +195,7 @@
     <t>响应添加好友</t>
   </si>
   <si>
-    <t>结果代码 00:账号不存在, 01:成功</t>
+    <t>结果代码 00:账号不存在, 01:成功, 02: 已经添加</t>
   </si>
   <si>
     <t>10|01</t>
@@ -284,39 +281,165 @@
   <si>
     <t>注：协议使用竖线|分隔，所以任何聊天消息、账号、昵称、密码都不允许存在|</t>
   </si>
-  <si>
-    <t>JUNLIN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHENGQING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIUGANG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DONE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果代码 1:账号不存在, 2:密码不正确, 3:用户已登录, 0登录成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1账号已经存在，0 注册成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -327,31 +450,202 @@
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,9 +653,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -372,24 +908,68 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -676,28 +1256,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="5" width="24.21875" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" customWidth="1"/>
-    <col min="7" max="7" width="65" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" customWidth="1"/>
-    <col min="9" max="9" width="57.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.1826923076923" customWidth="1"/>
+    <col min="5" max="5" width="16.7307692307692" customWidth="1"/>
+    <col min="6" max="6" width="65" customWidth="1"/>
+    <col min="7" max="7" width="30.3653846153846" customWidth="1"/>
+    <col min="8" max="8" width="57.1826923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,23 +1290,20 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -739,20 +1316,17 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -765,23 +1339,17 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>86</v>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -794,20 +1362,17 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
       </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -820,25 +1385,22 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>84</v>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>85</v>
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -847,24 +1409,21 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
         <v>32</v>
       </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -873,24 +1432,21 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
         <v>37</v>
       </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
       <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -899,24 +1455,21 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" t="s">
         <v>42</v>
       </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
       <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -925,24 +1478,21 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" t="s">
         <v>47</v>
       </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -951,24 +1501,21 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
         <v>52</v>
       </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
       <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -977,27 +1524,24 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1006,21 +1550,21 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
         <v>63</v>
       </c>
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1029,21 +1573,21 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
         <v>68</v>
       </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
       <c r="H13" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1052,24 +1596,21 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" t="s">
         <v>73</v>
       </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.6">
+    <row r="15" ht="17" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1077,66 +1618,68 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="24320"/>
+    <workbookView windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>头部</t>
   </si>
@@ -114,12 +114,15 @@
     <t>05</t>
   </si>
   <si>
-    <t>05|[目的账号]|[消息]</t>
+    <t>05|[发送账号]|[目的账号]|[消息]</t>
   </si>
   <si>
     <t>发送私聊消息</t>
   </si>
   <si>
+    <t>结果代码 0发送成功，1账号不存在</t>
+  </si>
+  <si>
     <t>05|0001|hello world</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
   </si>
   <si>
     <t>发送群聊消息</t>
+  </si>
+  <si>
+    <t>结果代码 0发送成功</t>
   </si>
   <si>
     <t>06|hello world</t>
@@ -287,10 +293,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -302,23 +308,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,43 +406,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,9 +419,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,62 +429,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,72 +466,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,114 +647,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,32 +657,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,17 +678,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,26 +732,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,148 +762,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -917,54 +923,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1265,16 +1271,16 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="24.1826923076923" customWidth="1"/>
-    <col min="5" max="5" width="16.7307692307692" customWidth="1"/>
+    <col min="4" max="4" width="24.1842105263158" customWidth="1"/>
+    <col min="5" max="5" width="16.7280701754386" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="30.3653846153846" customWidth="1"/>
-    <col min="8" max="8" width="57.1826923076923" customWidth="1"/>
+    <col min="7" max="7" width="30.3684210526316" customWidth="1"/>
+    <col min="8" max="8" width="57.1842105263158" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1414,16 +1420,19 @@
       <c r="E6" t="s">
         <v>33</v>
       </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1432,21 +1441,21 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -1455,21 +1464,24 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1478,21 +1490,21 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1501,21 +1513,21 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1524,24 +1536,24 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1550,21 +1562,21 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1573,21 +1585,21 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1596,21 +1608,21 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="15" ht="17" spans="1:8">
+    <row r="15" ht="15.3" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -1619,21 +1631,21 @@
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1659,7 +1671,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1676,7 +1688,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -120,7 +120,7 @@
     <t>发送私聊消息</t>
   </si>
   <si>
-    <t>结果代码 0发送成功，1账号不存在</t>
+    <t>结果代码 0发送成功；1好友不存在，2:好友已下线；3发送失败</t>
   </si>
   <si>
     <t>05|0001|hello world</t>
@@ -293,8 +293,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -308,14 +308,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,45 +407,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,54 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,26 +663,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,17 +699,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,17 +740,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -777,133 +777,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>

--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192"/>
+    <workbookView windowWidth="17265" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>头部</t>
   </si>
@@ -285,6 +285,21 @@
     <t>账号0001跟0002是自己好友，昵称分别为rongxianguo和leo</t>
   </si>
   <si>
+    <t>服务端</t>
+  </si>
+  <si>
+    <t>15|[账号信息]</t>
+  </si>
+  <si>
+    <t>询问好友添加请求</t>
+  </si>
+  <si>
+    <t>16|[是否允许]</t>
+  </si>
+  <si>
+    <t>返回请求结果</t>
+  </si>
+  <si>
     <t>注：协议使用竖线|分隔，所以任何聊天消息、账号、昵称、密码都不允许存在|</t>
   </si>
 </sst>
@@ -293,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -315,7 +330,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +345,53 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,8 +405,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,30 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -383,31 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,30 +453,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,73 +481,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,109 +661,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,11 +675,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,17 +705,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +753,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,24 +772,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -765,149 +780,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +931,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,19 +1286,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="24.1842105263158" customWidth="1"/>
-    <col min="5" max="5" width="16.7280701754386" customWidth="1"/>
+    <col min="4" max="4" width="24.1833333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.725" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="30.3684210526316" customWidth="1"/>
-    <col min="8" max="8" width="57.1842105263158" customWidth="1"/>
+    <col min="7" max="7" width="30.3666666666667" customWidth="1"/>
+    <col min="8" max="8" width="57.1833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1620,7 +1638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" ht="15.3" spans="1:8">
+    <row r="15" ht="16.5" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -1643,18 +1661,52 @@
         <v>82</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1671,7 +1723,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1688,7 +1740,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\liugangzuoye\code\netchathomework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84662AC3-14B6-4FD3-8E45-4E13F0DACC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="12285"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>头部</t>
   </si>
@@ -96,9 +102,6 @@
     <t>04</t>
   </si>
   <si>
-    <t>04|[结果代码]</t>
-  </si>
-  <si>
     <t>响应登录请求</t>
   </si>
   <si>
@@ -199,9 +202,6 @@
   </si>
   <si>
     <t>响应添加好友</t>
-  </si>
-  <si>
-    <t>结果代码 00:账号不存在, 01:成功, 02: 已经添加</t>
   </si>
   <si>
     <t>10|01</t>
@@ -302,18 +302,24 @@
   <si>
     <t>注：协议使用竖线|分隔，所以任何聊天消息、账号、昵称、密码都不允许存在|</t>
   </si>
+  <si>
+    <t>04|[结果代码]|[昵称]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果代码 00:账号不存在, 01:成功, 02: 已经添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果代码 00:账号不存在, 01:成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,349 +330,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -674,251 +365,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -929,71 +378,27 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1280,25 +685,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="24.1833333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.725" customWidth="1"/>
+    <col min="4" max="4" width="24.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="30.3666666666667" customWidth="1"/>
-    <col min="8" max="8" width="57.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="57.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1406,344 +811,341 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>51</v>
-      </c>
-      <c r="H9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" t="s">
         <v>69</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
         <v>70</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
         <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
         <v>74</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
         <v>75</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:8" ht="15.6">
+      <c r="A15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:8">
-      <c r="A15" s="1" t="s">
+      <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>83</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A18:E18"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>头部</t>
   </si>
@@ -294,10 +294,13 @@
     <t>询问好友添加请求</t>
   </si>
   <si>
-    <t>16|[是否允许]</t>
+    <t>16|[是否允许]|添加人账号</t>
   </si>
   <si>
     <t>返回请求结果</t>
+  </si>
+  <si>
+    <t>17|[是否允许]</t>
   </si>
   <si>
     <t>注：协议使用竖线|分隔，所以任何聊天消息、账号、昵称、密码都不允许存在|</t>
@@ -1286,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1695,18 +1698,32 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/聊天协议.xlsx
+++ b/聊天协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17265" windowHeight="12285"/>
+    <workbookView windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>07</t>
   </si>
   <si>
-    <t>07|[消息]</t>
+    <t>07|[发送账号]|[消息]</t>
   </si>
   <si>
     <t>发送群聊消息</t>
@@ -165,7 +165,7 @@
     <t>08</t>
   </si>
   <si>
-    <t>08|[消息]</t>
+    <t>08|[源账号昵称-消息]</t>
   </si>
   <si>
     <t>推送群聊消息</t>
@@ -311,10 +311,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -326,6 +326,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -339,17 +384,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -369,6 +424,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -377,21 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -400,25 +447,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,43 +464,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,25 +484,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,151 +580,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +675,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,6 +730,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,8 +761,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,56 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -783,10 +783,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,137 +795,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,16 +1289,16 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="24.1833333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.725" customWidth="1"/>
+    <col min="4" max="4" width="24.1842105263158" customWidth="1"/>
+    <col min="5" max="5" width="16.7280701754386" customWidth="1"/>
     <col min="6" max="6" width="65" customWidth="1"/>
-    <col min="7" max="7" width="30.3666666666667" customWidth="1"/>
-    <col min="8" max="8" width="57.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="30.3684210526316" customWidth="1"/>
+    <col min="8" max="8" width="57.1842105263158" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1641,7 +1638,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:8">
+    <row r="15" ht="15.3" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
@@ -1713,13 +1710,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1740,7 +1737,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1757,7 +1754,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
